--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,6 +643,138 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>SHISHIR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10:19:09</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CapturedFaces/SHISHIR_2026-01-31_10-19-09.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BIPUL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10:28:08</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CapturedFaces/BIPUL_2026-01-31_10-28-08.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PUJA</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10:28:17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CapturedFaces/PUJA_2026-01-31_10-28-17.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MAHI</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10:28:57</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CapturedFaces/MAHI_2026-01-31_10-28-57.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SONAI</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10:30:44</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CapturedFaces/SONAI_2026-01-31_10-30-44.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ISTIAK</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>10:31:02</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CapturedFaces/ISTIAK_2026-01-31_10-31-02.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
